--- a/artfynd/A 11874-2023.xlsx
+++ b/artfynd/A 11874-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6219924</v>
+        <v>7177027</v>
       </c>
       <c r="B2" t="n">
-        <v>95520</v>
+        <v>95525</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,42 +696,48 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>224363</v>
+        <v>221941</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vanlig revlummer</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum subsp. annotinum</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>Lycopodium complanatum</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>175</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Ekudden 650 m n, Srm</t>
+          <t>Ekudden 625 m n, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575011.6266864444</v>
+        <v>575092.6639003595</v>
       </c>
       <c r="R2" t="n">
-        <v>6536030.612718226</v>
+        <v>6536115.777288955</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -755,7 +761,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2008-02-04</t>
+          <t>2014-02-17</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -765,7 +771,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2008-02-04</t>
+          <t>2014-02-17</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -782,9 +788,14 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>MARKSLAG</t>
+        </is>
+      </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Grandominerad barrskog</t>
+          <t>Barrblandskog</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -802,10 +813,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>399064</v>
+        <v>7177032</v>
       </c>
       <c r="B3" t="n">
-        <v>81971</v>
+        <v>96334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,46 +829,48 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1445</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Ekudden 650 m n, Srm</t>
+          <t>Ekudden 600 m n, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575011.6266864444</v>
+        <v>575081.7704466349</v>
       </c>
       <c r="R3" t="n">
-        <v>6536030.612718226</v>
+        <v>6536091.315354088</v>
       </c>
       <c r="S3" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -881,7 +894,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2008-02-04</t>
+          <t>2014-02-17</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -891,7 +904,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2008-02-04</t>
+          <t>2014-02-17</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -899,6 +912,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>2 lokaler 28+12 skott</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -907,11 +925,6 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Grandominerad barrskog</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -928,10 +941,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6229492</v>
+        <v>16709111</v>
       </c>
       <c r="B4" t="n">
-        <v>95522</v>
+        <v>96334</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,46 +953,52 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>224364</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vanlig mattlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum subsp. clavatum</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Ekudden 650 m n, Srm</t>
+          <t>Karlsro 350 m nv, Srm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575011.6266864444</v>
+        <v>575155.1827484618</v>
       </c>
       <c r="R4" t="n">
-        <v>6536030.612718226</v>
+        <v>6536037.542932893</v>
       </c>
       <c r="S4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1003,7 +1022,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2008-02-04</t>
+          <t>2014-10-05</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1013,7 +1032,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2008-02-04</t>
+          <t>2014-10-05</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1030,9 +1049,14 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Sandbarrskog</t>
+        </is>
+      </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Grandominerad barrskog</t>
+          <t>Talldominerad Barrblandskog</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1050,10 +1074,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7027720</v>
+        <v>67782933</v>
       </c>
       <c r="B5" t="n">
-        <v>93375</v>
+        <v>96334</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,44 +1086,56 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2180</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>frukt-/fröspridning</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Ekudden 650 m n, Srm</t>
+          <t>Ekudden (Knärot) 500 m n, Srm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575011.6266864444</v>
+        <v>575162.0709143769</v>
       </c>
       <c r="R5" t="n">
-        <v>6536030.612718226</v>
+        <v>6536028.906371513</v>
       </c>
       <c r="S5" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1121,9 +1157,14 @@
           <t>Stora Malm</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>D-Kat-0432</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2013-11-05</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1133,7 +1174,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2013-11-05</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1149,6 +1190,16 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1161,14 +1212,18 @@
           <t>Bo Karlsson</t>
         </is>
       </c>
-      <c r="AY5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7177027</v>
+        <v>76809995</v>
       </c>
       <c r="B6" t="n">
-        <v>95525</v>
+        <v>95526</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1181,48 +1236,45 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221941</v>
+        <v>224358</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Vanlig plattlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>L.</t>
-        </is>
-      </c>
+          <t>Lycopodium complanatum subsp. complanatum</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Ekudden 625 m n, Srm</t>
+          <t>Forssjö no, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575092.6639003595</v>
+        <v>575111.1400976054</v>
       </c>
       <c r="R6" t="n">
-        <v>6536115.777288955</v>
+        <v>6536096.01638487</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1246,7 +1298,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2014-02-17</t>
+          <t>2019-03-26</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1256,7 +1308,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2014-02-17</t>
+          <t>2019-03-26</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1270,17 +1322,18 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>MARKSLAG</t>
+          <t>Skogsmark</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Barrblandskog</t>
+          <t>barrblandskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1298,7 +1351,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7177032</v>
+        <v>91878992</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1333,7 +1386,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1341,21 +1394,30 @@
           <t>stjälkar/strån/skott</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Ekudden 600 m n, Srm</t>
+          <t>Ekudden knärot 550 m n, Srm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575081.7704466349</v>
+        <v>575114.0529128641</v>
       </c>
       <c r="R7" t="n">
-        <v>6536091.315354088</v>
+        <v>6536052.733850819</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1377,9 +1439,14 @@
           <t>Stora Malm</t>
         </is>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>D-Kat-0553</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2014-02-17</t>
+          <t>2021-03-25</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1389,7 +1456,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2014-02-17</t>
+          <t>2021-03-25</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1399,7 +1466,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2 lokaler 28+12 skott</t>
+          <t>2 dellokaler 13+3 ex</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1408,8 +1475,19 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1422,14 +1500,18 @@
           <t>Bo Karlsson</t>
         </is>
       </c>
-      <c r="AY7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7177003</v>
+        <v>109002285</v>
       </c>
       <c r="B8" t="n">
-        <v>81972</v>
+        <v>96334</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1442,47 +1524,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1445</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Ekudden 675 m n, Srm</t>
+          <t>Ändbäckkärret, Srm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>574966.5851426019</v>
+        <v>575082.1096188766</v>
       </c>
       <c r="R8" t="n">
-        <v>6536034.378041334</v>
+        <v>6536047.466566495</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1506,22 +1583,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2014-02-17</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:06</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2014-02-17</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:06</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1530,36 +1607,25 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>MARKSLAG</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Grandominerad skog</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Fredrik Enoksson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Fredrik Enoksson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16709111</v>
+        <v>109002581</v>
       </c>
       <c r="B9" t="n">
         <v>96334</v>
@@ -1594,29 +1660,28 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Karlsro 350 m nv, Srm</t>
+          <t>Ändbäckkärret, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575155.1827484618</v>
+        <v>575109.0905836107</v>
       </c>
       <c r="R9" t="n">
-        <v>6536037.542932893</v>
+        <v>6536068.631302664</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1640,22 +1705,27 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2014-10-05</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2014-10-05</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:12</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Minst, flera smågrupper inom avverkningsanmäld skog</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1666,36 +1736,26 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Sandbarrskog</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>Talldominerad Barrblandskog</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Fredrik Enoksson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Fredrik Enoksson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16837812</v>
+        <v>109002923</v>
       </c>
       <c r="B10" t="n">
-        <v>90074</v>
+        <v>95525</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1708,39 +1768,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>221941</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Ekudden 650 m n, Srm</t>
+          <t>Ändbäckkärret, Srm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575011.6266864444</v>
+        <v>575096.4215633231</v>
       </c>
       <c r="R10" t="n">
-        <v>6536030.612718226</v>
+        <v>6536108.627496871</v>
       </c>
       <c r="S10" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1764,7 +1823,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2014-11-11</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1774,7 +1833,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2014-11-11</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1788,29 +1847,28 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Fredrik Enoksson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Fredrik Enoksson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17191292</v>
+        <v>6219924</v>
       </c>
       <c r="B11" t="n">
-        <v>81972</v>
+        <v>95520</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1819,51 +1877,46 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1445</v>
+        <v>224363</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Vanlig revlummer</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
+          <t>Lycopodium annotinum subsp. annotinum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Ekudden 650 m no, Srm</t>
+          <t>Ekudden 650 m n, Srm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>574981.85036159</v>
+        <v>575011.6266864444</v>
       </c>
       <c r="R11" t="n">
-        <v>6536020.228999851</v>
+        <v>6536030.612718226</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1887,7 +1940,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2015-03-11</t>
+          <t>2008-02-04</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1897,7 +1950,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2015-03-11</t>
+          <t>2008-02-04</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1911,18 +1964,12 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>MARKSLAG</t>
-        </is>
-      </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Grandominerad blandskog</t>
+          <t>Grandominerad barrskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1940,10 +1987,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17191296</v>
+        <v>399064</v>
       </c>
       <c r="B12" t="n">
-        <v>81972</v>
+        <v>81971</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1975,7 +2022,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1983,20 +2030,19 @@
           <t>fruktkroppar</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Ekudden 650 m no, Srm</t>
+          <t>Ekudden 650 m n, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>574982.2602861294</v>
+        <v>575011.6266864444</v>
       </c>
       <c r="R12" t="n">
-        <v>6536052.225879623</v>
+        <v>6536030.612718226</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2020,7 +2066,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2015-03-11</t>
+          <t>2008-02-04</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2030,7 +2076,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2015-03-11</t>
+          <t>2008-02-04</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2044,13 +2090,12 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Grandominerad blandskog</t>
+          <t>Grandominerad barrskog</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2068,10 +2113,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17191295</v>
+        <v>6229492</v>
       </c>
       <c r="B13" t="n">
-        <v>81972</v>
+        <v>95522</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2080,51 +2125,46 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1445</v>
+        <v>224364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Vanlig mattlummer</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
+          <t>Lycopodium clavatum subsp. clavatum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Ekudden 650 m no, Srm</t>
+          <t>Ekudden 650 m n, Srm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>574985.7587414775</v>
+        <v>575011.6266864444</v>
       </c>
       <c r="R13" t="n">
-        <v>6536005.342565036</v>
+        <v>6536030.612718226</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2148,7 +2188,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2015-03-11</t>
+          <t>2008-02-04</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2158,7 +2198,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2015-03-11</t>
+          <t>2008-02-04</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2172,13 +2212,12 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Grandominerad blandskog</t>
+          <t>Grandominerad barrskog</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2196,10 +2235,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67544704</v>
+        <v>7027720</v>
       </c>
       <c r="B14" t="n">
-        <v>88404</v>
+        <v>93375</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2208,30 +2247,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>972</v>
+        <v>2180</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosentrattskivling</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pseudoclitopilus rhodoleucus</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Sacc.) Vizzini &amp; Contu</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Ekudden 650 m n, Srm</t>
@@ -2268,7 +2308,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2017-09-13</t>
+          <t>2013-11-05</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2278,7 +2318,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2017-09-13</t>
+          <t>2013-11-05</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2292,19 +2332,8 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Barrbladskog,</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2321,10 +2350,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68865304</v>
+        <v>7177003</v>
       </c>
       <c r="B15" t="n">
-        <v>90674</v>
+        <v>81972</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2333,43 +2362,51 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5964</v>
+        <v>1445</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Ekudden 650 m n, Srm</t>
+          <t>Ekudden 675 m n, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575011.6266864444</v>
+        <v>574966.5851426019</v>
       </c>
       <c r="R15" t="n">
-        <v>6536030.612718226</v>
+        <v>6536034.378041334</v>
       </c>
       <c r="S15" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2393,7 +2430,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2018-01-02</t>
+          <t>2014-02-17</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2403,7 +2440,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2018-01-02</t>
+          <t>2014-02-17</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2423,12 +2460,12 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>Skogsmark</t>
+          <t>MARKSLAG</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Grandominerad blandskog</t>
+          <t>Grandominerad skog</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2446,10 +2483,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>68865315</v>
+        <v>16837812</v>
       </c>
       <c r="B16" t="n">
-        <v>95526</v>
+        <v>90074</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2462,31 +2499,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>224358</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vanlig plattlummer</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum subsp. complanatum</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Ekudden 650 m n, Srm</t>
@@ -2523,7 +2555,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2018-01-02</t>
+          <t>2014-11-11</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2533,7 +2565,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2018-01-02</t>
+          <t>2014-11-11</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2547,18 +2579,9 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>Grandominerad blandskog</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2575,10 +2598,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>67782933</v>
+        <v>17191292</v>
       </c>
       <c r="B17" t="n">
-        <v>96334</v>
+        <v>81972</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2591,52 +2614,47 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>1445</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>frukt-/fröspridning</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Ekudden (Knärot) 500 m n, Srm</t>
+          <t>Ekudden 650 m no, Srm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575162.0709143769</v>
+        <v>574981.85036159</v>
       </c>
       <c r="R17" t="n">
-        <v>6536028.906371513</v>
+        <v>6536020.228999851</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2658,14 +2676,9 @@
           <t>Stora Malm</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>D-Kat-0432</t>
-        </is>
-      </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-03-11</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2675,7 +2688,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2015-03-11</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2689,17 +2702,18 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>Skogsmark</t>
+          <t>MARKSLAG</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Barrblandskog</t>
+          <t>Grandominerad blandskog</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2713,18 +2727,14 @@
           <t>Bo Karlsson</t>
         </is>
       </c>
-      <c r="AY17" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+      <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>76809995</v>
+        <v>17191296</v>
       </c>
       <c r="B18" t="n">
-        <v>95526</v>
+        <v>81972</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2733,49 +2743,51 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>224358</v>
+        <v>1445</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vanlig plattlummer</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum subsp. complanatum</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>Sarcosoma globosum</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Forssjö no, Srm</t>
+          <t>Ekudden 650 m no, Srm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575111.1400976054</v>
+        <v>574982.2602861294</v>
       </c>
       <c r="R18" t="n">
-        <v>6536096.01638487</v>
+        <v>6536052.225879623</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2799,7 +2811,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2019-03-26</t>
+          <t>2015-03-11</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2809,7 +2821,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2019-03-26</t>
+          <t>2015-03-11</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2827,14 +2839,9 @@
       <c r="AG18" t="b">
         <v>0</v>
       </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>barrblandskog</t>
+          <t>Grandominerad blandskog</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2852,10 +2859,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>91878992</v>
+        <v>17191295</v>
       </c>
       <c r="B19" t="n">
-        <v>96334</v>
+        <v>81972</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2868,57 +2875,47 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>1445</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Ekudden knärot 550 m n, Srm</t>
+          <t>Ekudden 650 m no, Srm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575114.0529128641</v>
+        <v>574985.7587414775</v>
       </c>
       <c r="R19" t="n">
-        <v>6536052.733850819</v>
+        <v>6536005.342565036</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2940,14 +2937,9 @@
           <t>Stora Malm</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>D-Kat-0553</t>
-        </is>
-      </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2021-03-25</t>
+          <t>2015-03-11</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2957,17 +2949,12 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2021-03-25</t>
+          <t>2015-03-11</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>2 dellokaler 13+3 ex</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2980,14 +2967,9 @@
       <c r="AG19" t="b">
         <v>0</v>
       </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Barrblandskog</t>
+          <t>Grandominerad blandskog</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3001,18 +2983,14 @@
           <t>Bo Karlsson</t>
         </is>
       </c>
-      <c r="AY19" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+      <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>91878510</v>
+        <v>67544704</v>
       </c>
       <c r="B20" t="n">
-        <v>81972</v>
+        <v>88404</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3021,52 +2999,43 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1445</v>
+        <v>972</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Rosentrattskivling</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Pseudoclitopilus rhodoleucus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Sacc.) Vizzini &amp; Contu</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Forssjö 370 m no, Srm</t>
+          <t>Ekudden 650 m n, Srm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>574999.7769785739</v>
+        <v>575011.6266864444</v>
       </c>
       <c r="R20" t="n">
-        <v>6536055.14717287</v>
+        <v>6536030.612718226</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3090,7 +3059,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2021-03-25</t>
+          <t>2017-09-13</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3100,17 +3069,12 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2021-03-25</t>
+          <t>2017-09-13</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Ny plats</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3130,7 +3094,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>Grandominerad barrblandskog</t>
+          <t>Barrbladskog,</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3148,10 +3112,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>92289669</v>
+        <v>68865304</v>
       </c>
       <c r="B21" t="n">
-        <v>81972</v>
+        <v>90674</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3160,42 +3124,43 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1445</v>
+        <v>5964</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Forssjöskogen, Srm</t>
+          <t>Ekudden 650 m n, Srm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575000.8907927673</v>
+        <v>575011.6266864444</v>
       </c>
       <c r="R21" t="n">
-        <v>6536051.041312378</v>
+        <v>6536030.612718226</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3219,7 +3184,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2021-04-09</t>
+          <t>2018-01-02</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3229,7 +3194,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2021-04-09</t>
+          <t>2018-01-02</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3243,32 +3208,39 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Grandominerad blandskog</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr">
-        <is>
-          <t>Lst D inventering sandbarrskogar</t>
-        </is>
-      </c>
+          <t>Bo Karlsson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>92289603</v>
+        <v>68865315</v>
       </c>
       <c r="B22" t="n">
-        <v>81972</v>
+        <v>95526</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3277,51 +3249,48 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1445</v>
+        <v>224358</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Vanlig plattlummer</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
+          <t>Lycopodium complanatum subsp. complanatum</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>160</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Forssjöskogen, Srm</t>
+          <t>Ekudden 650 m n, Srm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>574996.7435720876</v>
+        <v>575011.6266864444</v>
       </c>
       <c r="R22" t="n">
-        <v>6536025.162955576</v>
+        <v>6536030.612718226</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3345,7 +3314,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2021-04-09</t>
+          <t>2018-01-02</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3355,7 +3324,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2021-04-09</t>
+          <t>2018-01-02</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3371,30 +3340,36 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Grandominerad blandskog</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr">
-        <is>
-          <t>Lst D inventering sandbarrskogar</t>
-        </is>
-      </c>
+          <t>Bo Karlsson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>91510073</v>
+        <v>91878510</v>
       </c>
       <c r="B23" t="n">
-        <v>96334</v>
+        <v>81972</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3407,39 +3382,48 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>1445</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Ändbäckkärret, Srm</t>
+          <t>Forssjö 370 m no, Srm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>575068.1424767512</v>
+        <v>574999.7769785739</v>
       </c>
       <c r="R23" t="n">
-        <v>6536074.539111541</v>
+        <v>6536055.14717287</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3463,7 +3447,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2021-03-10</t>
+          <t>2021-03-25</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3473,7 +3457,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2021-03-10</t>
+          <t>2021-03-25</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3481,38 +3465,50 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Ny plats</t>
+        </is>
+      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>Grandominerad barrblandskog</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr">
-        <is>
-          <t>Lst D inventering sandbarrskogar</t>
-        </is>
-      </c>
+          <t>Bo Karlsson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>99489779</v>
+        <v>92289669</v>
       </c>
       <c r="B24" t="n">
-        <v>103265</v>
+        <v>81972</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3521,57 +3517,42 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221144</v>
+        <v>1445</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Ekudden 650 m n, Srm</t>
+          <t>Forssjöskogen, Srm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>575011.6266864444</v>
+        <v>575000.8907927673</v>
       </c>
       <c r="R24" t="n">
-        <v>6536030.612718226</v>
+        <v>6536051.041312378</v>
       </c>
       <c r="S24" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3595,7 +3576,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2021-04-09</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3605,7 +3586,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2021-04-09</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3619,39 +3600,32 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Fredrik Enoksson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr"/>
+          <t>Fredrik Enoksson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>Lst D inventering sandbarrskogar</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>109002285</v>
+        <v>92289603</v>
       </c>
       <c r="B25" t="n">
-        <v>96334</v>
+        <v>81972</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3664,39 +3638,44 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>1445</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Ändbäckkärret, Srm</t>
+          <t>Forssjöskogen, Srm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>575082.1096188766</v>
+        <v>574996.7435720876</v>
       </c>
       <c r="R25" t="n">
-        <v>6536047.466566495</v>
+        <v>6536025.162955576</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3723,22 +3702,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2021-04-09</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>10:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2021-04-09</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>10:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3761,11 +3740,15 @@
           <t>Fredrik Enoksson</t>
         </is>
       </c>
-      <c r="AY25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>Lst D inventering sandbarrskogar</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>109002581</v>
+        <v>91510073</v>
       </c>
       <c r="B26" t="n">
         <v>96334</v>
@@ -3798,27 +3781,19 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Ändbäckkärret, Srm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>575109.0905836107</v>
+        <v>575068.1424767512</v>
       </c>
       <c r="R26" t="n">
-        <v>6536068.631302664</v>
+        <v>6536074.539111541</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3845,27 +3820,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2021-03-10</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2021-03-10</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>10:12</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Minst, flera smågrupper inom avverkningsanmäld skog</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3888,14 +3858,18 @@
           <t>Fredrik Enoksson</t>
         </is>
       </c>
-      <c r="AY26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>Lst D inventering sandbarrskogar</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>109002923</v>
+        <v>99489779</v>
       </c>
       <c r="B27" t="n">
-        <v>95525</v>
+        <v>103265</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3908,38 +3882,53 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>221941</v>
+        <v>221144</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Ändbäckkärret, Srm</t>
+          <t>Ekudden 650 m n, Srm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>575096.4215633231</v>
+        <v>575011.6266864444</v>
       </c>
       <c r="R27" t="n">
-        <v>6536108.627496871</v>
+        <v>6536030.612718226</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3963,7 +3952,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3973,7 +3962,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3987,18 +3976,29 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>

--- a/artfynd/A 11874-2023.xlsx
+++ b/artfynd/A 11874-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7177027</v>
+        <v>6219924</v>
       </c>
       <c r="B2" t="n">
-        <v>95525</v>
+        <v>95520</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,48 +696,42 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221941</v>
+        <v>224363</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Vanlig revlummer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>L.</t>
-        </is>
-      </c>
+          <t>Lycopodium annotinum subsp. annotinum</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Ekudden 625 m n, Srm</t>
+          <t>Ekudden 650 m n, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575092.6639003595</v>
+        <v>575011.6266864444</v>
       </c>
       <c r="R2" t="n">
-        <v>6536115.777288955</v>
+        <v>6536030.612718226</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -761,7 +755,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2014-02-17</t>
+          <t>2008-02-04</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -771,7 +765,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2014-02-17</t>
+          <t>2008-02-04</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -788,14 +782,9 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>MARKSLAG</t>
-        </is>
-      </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Barrblandskog</t>
+          <t>Grandominerad barrskog</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -813,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7177032</v>
+        <v>399064</v>
       </c>
       <c r="B3" t="n">
-        <v>96334</v>
+        <v>81971</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -829,48 +818,46 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>1445</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Ekudden 600 m n, Srm</t>
+          <t>Ekudden 650 m n, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575081.7704466349</v>
+        <v>575011.6266864444</v>
       </c>
       <c r="R3" t="n">
-        <v>6536091.315354088</v>
+        <v>6536030.612718226</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -894,7 +881,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2014-02-17</t>
+          <t>2008-02-04</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -904,7 +891,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2014-02-17</t>
+          <t>2008-02-04</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -912,11 +899,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>2 lokaler 28+12 skott</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -925,6 +907,11 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Grandominerad barrskog</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -941,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16709111</v>
+        <v>6229492</v>
       </c>
       <c r="B4" t="n">
-        <v>96334</v>
+        <v>95522</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -953,52 +940,46 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>224364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vanlig mattlummer</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
+          <t>Lycopodium clavatum subsp. clavatum</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Karlsro 350 m nv, Srm</t>
+          <t>Ekudden 650 m n, Srm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575155.1827484618</v>
+        <v>575011.6266864444</v>
       </c>
       <c r="R4" t="n">
-        <v>6536037.542932893</v>
+        <v>6536030.612718226</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1022,7 +1003,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2014-10-05</t>
+          <t>2008-02-04</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1032,7 +1013,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2014-10-05</t>
+          <t>2008-02-04</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1049,14 +1030,9 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Sandbarrskog</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Talldominerad Barrblandskog</t>
+          <t>Grandominerad barrskog</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1074,10 +1050,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67782933</v>
+        <v>7027720</v>
       </c>
       <c r="B5" t="n">
-        <v>96334</v>
+        <v>93375</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1086,56 +1062,44 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>2180</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>frukt-/fröspridning</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Ekudden (Knärot) 500 m n, Srm</t>
+          <t>Ekudden 650 m n, Srm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575162.0709143769</v>
+        <v>575011.6266864444</v>
       </c>
       <c r="R5" t="n">
-        <v>6536028.906371513</v>
+        <v>6536030.612718226</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1157,14 +1121,9 @@
           <t>Stora Malm</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>D-Kat-0432</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2013-11-05</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1174,7 +1133,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2013-11-05</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1190,16 +1149,6 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1212,18 +1161,14 @@
           <t>Bo Karlsson</t>
         </is>
       </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>76809995</v>
+        <v>7177027</v>
       </c>
       <c r="B6" t="n">
-        <v>95526</v>
+        <v>95525</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1236,45 +1181,48 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>224358</v>
+        <v>221941</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vanlig plattlummer</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum subsp. complanatum</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>Lycopodium complanatum</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>175</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Forssjö no, Srm</t>
+          <t>Ekudden 625 m n, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575111.1400976054</v>
+        <v>575092.6639003595</v>
       </c>
       <c r="R6" t="n">
-        <v>6536096.01638487</v>
+        <v>6536115.777288955</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1298,7 +1246,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2019-03-26</t>
+          <t>2014-02-17</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1308,7 +1256,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2019-03-26</t>
+          <t>2014-02-17</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1322,18 +1270,17 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>Skogsmark</t>
+          <t>MARKSLAG</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>barrblandskog</t>
+          <t>Barrblandskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1351,7 +1298,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91878992</v>
+        <v>7177032</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1386,7 +1333,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1394,30 +1341,21 @@
           <t>stjälkar/strån/skott</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Ekudden knärot 550 m n, Srm</t>
+          <t>Ekudden 600 m n, Srm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575114.0529128641</v>
+        <v>575081.7704466349</v>
       </c>
       <c r="R7" t="n">
-        <v>6536052.733850819</v>
+        <v>6536091.315354088</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1439,14 +1377,9 @@
           <t>Stora Malm</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>D-Kat-0553</t>
-        </is>
-      </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-03-25</t>
+          <t>2014-02-17</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1456,7 +1389,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-03-25</t>
+          <t>2014-02-17</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1466,7 +1399,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2 dellokaler 13+3 ex</t>
+          <t>2 lokaler 28+12 skott</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1475,19 +1408,8 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1500,18 +1422,14 @@
           <t>Bo Karlsson</t>
         </is>
       </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>109002285</v>
+        <v>7177003</v>
       </c>
       <c r="B8" t="n">
-        <v>96334</v>
+        <v>81972</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1524,42 +1442,47 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>1445</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Ändbäckkärret, Srm</t>
+          <t>Ekudden 675 m n, Srm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575082.1096188766</v>
+        <v>574966.5851426019</v>
       </c>
       <c r="R8" t="n">
-        <v>6536047.466566495</v>
+        <v>6536034.378041334</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1583,22 +1506,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2014-02-17</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2014-02-17</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1607,25 +1530,36 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>MARKSLAG</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Grandominerad skog</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>109002581</v>
+        <v>16709111</v>
       </c>
       <c r="B9" t="n">
         <v>96334</v>
@@ -1660,28 +1594,29 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Ändbäckkärret, Srm</t>
+          <t>Karlsro 350 m nv, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575109.0905836107</v>
+        <v>575155.1827484618</v>
       </c>
       <c r="R9" t="n">
-        <v>6536068.631302664</v>
+        <v>6536037.542932893</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1705,27 +1640,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2014-10-05</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2014-10-05</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:12</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Minst, flera smågrupper inom avverkningsanmäld skog</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1736,26 +1666,36 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Sandbarrskog</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Talldominerad Barrblandskog</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>109002923</v>
+        <v>16837812</v>
       </c>
       <c r="B10" t="n">
-        <v>95525</v>
+        <v>90074</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1768,38 +1708,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221941</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Ändbäckkärret, Srm</t>
+          <t>Ekudden 650 m n, Srm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575096.4215633231</v>
+        <v>575011.6266864444</v>
       </c>
       <c r="R10" t="n">
-        <v>6536108.627496871</v>
+        <v>6536030.612718226</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1823,7 +1764,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2014-11-11</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1833,7 +1774,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2014-11-11</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1847,28 +1788,29 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6219924</v>
+        <v>17191292</v>
       </c>
       <c r="B11" t="n">
-        <v>95520</v>
+        <v>81972</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1877,46 +1819,51 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>224363</v>
+        <v>1445</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vanlig revlummer</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum subsp. annotinum</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>Sarcosoma globosum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Ekudden 650 m n, Srm</t>
+          <t>Ekudden 650 m no, Srm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575011.6266864444</v>
+        <v>574981.85036159</v>
       </c>
       <c r="R11" t="n">
-        <v>6536030.612718226</v>
+        <v>6536020.228999851</v>
       </c>
       <c r="S11" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1940,7 +1887,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2008-02-04</t>
+          <t>2015-03-11</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1950,7 +1897,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2008-02-04</t>
+          <t>2015-03-11</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1964,12 +1911,18 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>MARKSLAG</t>
+        </is>
+      </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Grandominerad barrskog</t>
+          <t>Grandominerad blandskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1987,10 +1940,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>399064</v>
+        <v>17191296</v>
       </c>
       <c r="B12" t="n">
-        <v>81971</v>
+        <v>81972</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2022,7 +1975,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2030,19 +1983,20 @@
           <t>fruktkroppar</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Ekudden 650 m n, Srm</t>
+          <t>Ekudden 650 m no, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575011.6266864444</v>
+        <v>574982.2602861294</v>
       </c>
       <c r="R12" t="n">
-        <v>6536030.612718226</v>
+        <v>6536052.225879623</v>
       </c>
       <c r="S12" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2066,7 +2020,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2008-02-04</t>
+          <t>2015-03-11</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2076,7 +2030,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2008-02-04</t>
+          <t>2015-03-11</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2090,12 +2044,13 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Grandominerad barrskog</t>
+          <t>Grandominerad blandskog</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2113,10 +2068,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6229492</v>
+        <v>17191295</v>
       </c>
       <c r="B13" t="n">
-        <v>95522</v>
+        <v>81972</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2125,46 +2080,51 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>224364</v>
+        <v>1445</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vanlig mattlummer</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum subsp. clavatum</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>Sarcosoma globosum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Ekudden 650 m n, Srm</t>
+          <t>Ekudden 650 m no, Srm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575011.6266864444</v>
+        <v>574985.7587414775</v>
       </c>
       <c r="R13" t="n">
-        <v>6536030.612718226</v>
+        <v>6536005.342565036</v>
       </c>
       <c r="S13" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2188,7 +2148,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2008-02-04</t>
+          <t>2015-03-11</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2198,7 +2158,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2008-02-04</t>
+          <t>2015-03-11</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2212,12 +2172,13 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Grandominerad barrskog</t>
+          <t>Grandominerad blandskog</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2235,10 +2196,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7027720</v>
+        <v>67544704</v>
       </c>
       <c r="B14" t="n">
-        <v>93375</v>
+        <v>88404</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2247,31 +2208,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2180</v>
+        <v>972</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Rosentrattskivling</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Pseudoclitopilus rhodoleucus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Sacc.) Vizzini &amp; Contu</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Ekudden 650 m n, Srm</t>
@@ -2308,7 +2268,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2013-11-05</t>
+          <t>2017-09-13</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2318,7 +2278,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2013-11-05</t>
+          <t>2017-09-13</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2332,8 +2292,19 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Barrbladskog,</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2350,10 +2321,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7177003</v>
+        <v>68865304</v>
       </c>
       <c r="B15" t="n">
-        <v>81972</v>
+        <v>90674</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2362,51 +2333,43 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1445</v>
+        <v>5964</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Ekudden 675 m n, Srm</t>
+          <t>Ekudden 650 m n, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>574966.5851426019</v>
+        <v>575011.6266864444</v>
       </c>
       <c r="R15" t="n">
-        <v>6536034.378041334</v>
+        <v>6536030.612718226</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2430,7 +2393,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2014-02-17</t>
+          <t>2018-01-02</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2440,7 +2403,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2014-02-17</t>
+          <t>2018-01-02</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2460,12 +2423,12 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>MARKSLAG</t>
+          <t>Skogsmark</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Grandominerad skog</t>
+          <t>Grandominerad blandskog</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2483,10 +2446,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16837812</v>
+        <v>68865315</v>
       </c>
       <c r="B16" t="n">
-        <v>90074</v>
+        <v>95526</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2499,26 +2462,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3298</v>
+        <v>224358</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Vanlig plattlummer</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>Lycopodium complanatum subsp. complanatum</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Ekudden 650 m n, Srm</t>
@@ -2555,7 +2523,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2014-11-11</t>
+          <t>2018-01-02</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2565,7 +2533,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2014-11-11</t>
+          <t>2018-01-02</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2579,9 +2547,18 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Grandominerad blandskog</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2598,10 +2575,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17191292</v>
+        <v>67782933</v>
       </c>
       <c r="B17" t="n">
-        <v>81972</v>
+        <v>96334</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2614,47 +2591,52 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1445</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>110</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>frukt-/fröspridning</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Ekudden 650 m no, Srm</t>
+          <t>Ekudden (Knärot) 500 m n, Srm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>574981.85036159</v>
+        <v>575162.0709143769</v>
       </c>
       <c r="R17" t="n">
-        <v>6536020.228999851</v>
+        <v>6536028.906371513</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2676,9 +2658,14 @@
           <t>Stora Malm</t>
         </is>
       </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D-Kat-0432</t>
+        </is>
+      </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2015-03-11</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2688,7 +2675,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2015-03-11</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2702,18 +2689,17 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>MARKSLAG</t>
+          <t>Skogsmark</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Grandominerad blandskog</t>
+          <t>Barrblandskog</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2727,14 +2713,18 @@
           <t>Bo Karlsson</t>
         </is>
       </c>
-      <c r="AY17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17191296</v>
+        <v>76809995</v>
       </c>
       <c r="B18" t="n">
-        <v>81972</v>
+        <v>95526</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2743,51 +2733,49 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1445</v>
+        <v>224358</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Vanlig plattlummer</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
+          <t>Lycopodium complanatum subsp. complanatum</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Ekudden 650 m no, Srm</t>
+          <t>Forssjö no, Srm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>574982.2602861294</v>
+        <v>575111.1400976054</v>
       </c>
       <c r="R18" t="n">
-        <v>6536052.225879623</v>
+        <v>6536096.01638487</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2811,7 +2799,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2015-03-11</t>
+          <t>2019-03-26</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2821,7 +2809,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2015-03-11</t>
+          <t>2019-03-26</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2839,9 +2827,14 @@
       <c r="AG18" t="b">
         <v>0</v>
       </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>Grandominerad blandskog</t>
+          <t>barrblandskog</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2859,10 +2852,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17191295</v>
+        <v>91878992</v>
       </c>
       <c r="B19" t="n">
-        <v>81972</v>
+        <v>96334</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2875,47 +2868,57 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1445</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Ekudden 650 m no, Srm</t>
+          <t>Ekudden knärot 550 m n, Srm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>574985.7587414775</v>
+        <v>575114.0529128641</v>
       </c>
       <c r="R19" t="n">
-        <v>6536005.342565036</v>
+        <v>6536052.733850819</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2937,9 +2940,14 @@
           <t>Stora Malm</t>
         </is>
       </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D-Kat-0553</t>
+        </is>
+      </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2015-03-11</t>
+          <t>2021-03-25</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2949,12 +2957,17 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2015-03-11</t>
+          <t>2021-03-25</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>2 dellokaler 13+3 ex</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2967,9 +2980,14 @@
       <c r="AG19" t="b">
         <v>0</v>
       </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Grandominerad blandskog</t>
+          <t>Barrblandskog</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2983,14 +3001,18 @@
           <t>Bo Karlsson</t>
         </is>
       </c>
-      <c r="AY19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>67544704</v>
+        <v>91878510</v>
       </c>
       <c r="B20" t="n">
-        <v>88404</v>
+        <v>81972</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2999,43 +3021,52 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>972</v>
+        <v>1445</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rosentrattskivling</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pseudoclitopilus rhodoleucus</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Sacc.) Vizzini &amp; Contu</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Ekudden 650 m n, Srm</t>
+          <t>Forssjö 370 m no, Srm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575011.6266864444</v>
+        <v>574999.7769785739</v>
       </c>
       <c r="R20" t="n">
-        <v>6536030.612718226</v>
+        <v>6536055.14717287</v>
       </c>
       <c r="S20" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3059,7 +3090,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2017-09-13</t>
+          <t>2021-03-25</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3069,12 +3100,17 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2017-09-13</t>
+          <t>2021-03-25</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Ny plats</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3094,7 +3130,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>Barrbladskog,</t>
+          <t>Grandominerad barrblandskog</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3112,10 +3148,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>68865304</v>
+        <v>92289669</v>
       </c>
       <c r="B21" t="n">
-        <v>90674</v>
+        <v>81972</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3124,43 +3160,42 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5964</v>
+        <v>1445</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Ekudden 650 m n, Srm</t>
+          <t>Forssjöskogen, Srm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575011.6266864444</v>
+        <v>575000.8907927673</v>
       </c>
       <c r="R21" t="n">
-        <v>6536030.612718226</v>
+        <v>6536051.041312378</v>
       </c>
       <c r="S21" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3184,7 +3219,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2018-01-02</t>
+          <t>2021-04-09</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3194,7 +3229,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2018-01-02</t>
+          <t>2021-04-09</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3208,39 +3243,32 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>Grandominerad blandskog</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Fredrik Enoksson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr"/>
+          <t>Fredrik Enoksson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>Lst D inventering sandbarrskogar</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>68865315</v>
+        <v>92289603</v>
       </c>
       <c r="B22" t="n">
-        <v>95526</v>
+        <v>81972</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3249,48 +3277,51 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>224358</v>
+        <v>1445</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vanlig plattlummer</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum subsp. complanatum</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>Sarcosoma globosum</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Ekudden 650 m n, Srm</t>
+          <t>Forssjöskogen, Srm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575011.6266864444</v>
+        <v>574996.7435720876</v>
       </c>
       <c r="R22" t="n">
-        <v>6536030.612718226</v>
+        <v>6536025.162955576</v>
       </c>
       <c r="S22" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3314,7 +3345,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2018-01-02</t>
+          <t>2021-04-09</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3324,7 +3355,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2018-01-02</t>
+          <t>2021-04-09</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3340,36 +3371,30 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>Grandominerad blandskog</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Fredrik Enoksson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr"/>
+          <t>Fredrik Enoksson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Lst D inventering sandbarrskogar</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>91878510</v>
+        <v>91510073</v>
       </c>
       <c r="B23" t="n">
-        <v>81972</v>
+        <v>96334</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3382,48 +3407,39 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1445</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Forssjö 370 m no, Srm</t>
+          <t>Ändbäckkärret, Srm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>574999.7769785739</v>
+        <v>575068.1424767512</v>
       </c>
       <c r="R23" t="n">
-        <v>6536055.14717287</v>
+        <v>6536074.539111541</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3447,7 +3463,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2021-03-25</t>
+          <t>2021-03-10</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3457,7 +3473,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2021-03-25</t>
+          <t>2021-03-10</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3465,50 +3481,38 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Ny plats</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>Grandominerad barrblandskog</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Fredrik Enoksson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr"/>
+          <t>Fredrik Enoksson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Lst D inventering sandbarrskogar</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>92289669</v>
+        <v>99489779</v>
       </c>
       <c r="B24" t="n">
-        <v>81972</v>
+        <v>103265</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3517,42 +3521,57 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1445</v>
+        <v>221144</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Forssjöskogen, Srm</t>
+          <t>Ekudden 650 m n, Srm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>575000.8907927673</v>
+        <v>575011.6266864444</v>
       </c>
       <c r="R24" t="n">
-        <v>6536051.041312378</v>
+        <v>6536030.612718226</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3576,7 +3595,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2021-04-09</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3586,7 +3605,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2021-04-09</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3600,32 +3619,39 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr">
-        <is>
-          <t>Lst D inventering sandbarrskogar</t>
-        </is>
-      </c>
+          <t>Bo Karlsson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>92289603</v>
+        <v>109002285</v>
       </c>
       <c r="B25" t="n">
-        <v>81972</v>
+        <v>96334</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3638,44 +3664,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1445</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Forssjöskogen, Srm</t>
+          <t>Ändbäckkärret, Srm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>574996.7435720876</v>
+        <v>575082.1096188766</v>
       </c>
       <c r="R25" t="n">
-        <v>6536025.162955576</v>
+        <v>6536047.466566495</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3702,22 +3723,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2021-04-09</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:06</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2021-04-09</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:06</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3740,15 +3761,11 @@
           <t>Fredrik Enoksson</t>
         </is>
       </c>
-      <c r="AY25" t="inlineStr">
-        <is>
-          <t>Lst D inventering sandbarrskogar</t>
-        </is>
-      </c>
+      <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>91510073</v>
+        <v>109002581</v>
       </c>
       <c r="B26" t="n">
         <v>96334</v>
@@ -3781,19 +3798,27 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Ändbäckkärret, Srm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>575068.1424767512</v>
+        <v>575109.0905836107</v>
       </c>
       <c r="R26" t="n">
-        <v>6536074.539111541</v>
+        <v>6536068.631302664</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3820,22 +3845,27 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2021-03-10</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2021-03-10</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:12</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Minst, flera smågrupper inom avverkningsanmäld skog</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3858,18 +3888,14 @@
           <t>Fredrik Enoksson</t>
         </is>
       </c>
-      <c r="AY26" t="inlineStr">
-        <is>
-          <t>Lst D inventering sandbarrskogar</t>
-        </is>
-      </c>
+      <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>99489779</v>
+        <v>109002923</v>
       </c>
       <c r="B27" t="n">
-        <v>103265</v>
+        <v>95525</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3882,53 +3908,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>221144</v>
+        <v>221941</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Ekudden 650 m n, Srm</t>
+          <t>Ändbäckkärret, Srm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>575011.6266864444</v>
+        <v>575096.4215633231</v>
       </c>
       <c r="R27" t="n">
-        <v>6536030.612718226</v>
+        <v>6536108.627496871</v>
       </c>
       <c r="S27" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3952,7 +3963,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3962,7 +3973,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3976,29 +3987,18 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Fredrik Enoksson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Fredrik Enoksson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
